--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -133,18 +133,18 @@
     <t>dear</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>sure</t>
@@ -1581,25 +1581,25 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L23">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1607,25 +1607,25 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7333333333333333</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L24">
         <v>33</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N24">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1633,25 +1633,25 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7173913043478261</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1659,25 +1659,25 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1867,25 +1867,25 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.636085626911315</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L34">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1893,25 +1893,25 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6162790697674418</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="10:17">
